--- a/spending.xlsx
+++ b/spending.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tate/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tate/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0AAE92-2121-E74E-9AF1-B5D78E136484}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA21081E-AD20-5F42-966B-7A2AB6A8779E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>Posted Transactions</t>
   </si>
@@ -159,16 +159,10 @@
     <t>Label</t>
   </si>
   <si>
-    <t>luxury</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>luxury-food</t>
   </si>
   <si>
     <t>VEGETARIAN FASTfood RESTAWATERLOO ON</t>
@@ -730,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I55" activeCellId="1" sqref="E59 I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,7 +744,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -777,7 +771,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -819,7 +813,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -864,7 +858,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -894,7 +888,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -909,7 +903,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -939,7 +933,7 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -954,7 +948,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -969,7 +963,7 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="61" thickBot="1" x14ac:dyDescent="0.25">
@@ -984,7 +978,7 @@
         <v>31.45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="61" thickBot="1" x14ac:dyDescent="0.25">
@@ -999,7 +993,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1008,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1040,9 +1034,6 @@
         <v>8.93</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="22" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1056,7 +1047,7 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1071,7 +1062,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1086,7 +1077,7 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1104,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1119,7 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1143,7 +1134,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1158,7 +1149,7 @@
       </c>
       <c r="D29" s="7"/>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1173,7 +1164,7 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1188,7 +1179,7 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1203,7 +1194,7 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1218,7 +1209,7 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1263,7 +1254,7 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1278,7 +1269,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1284,7 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1299,7 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1314,7 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1338,7 +1329,7 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1353,7 +1344,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1359,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1376,14 +1367,14 @@
         <v>43208</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="10">
         <v>11.5</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1413,7 +1404,7 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1428,7 +1419,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1443,7 +1434,7 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1458,7 +1449,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1473,7 +1464,7 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1479,7 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1494,7 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1524,7 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1556,14 +1547,14 @@
         <v>43202</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56" s="10">
         <v>11.5</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1578,7 +1569,7 @@
       </c>
       <c r="D57" s="7"/>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1593,7 +1584,7 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="28" x14ac:dyDescent="0.2">
